--- a/source_plates/221018_arpae_plasmids.xlsx
+++ b/source_plates/221018_arpae_plasmids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F01B6F-E2E4-459D-971F-ECD3ED48D636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D0095-BAF6-4893-BEFC-C2DBD8493204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Item</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>New Volume</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
@@ -46,34 +49,52 @@
     <t>A1</t>
   </si>
   <si>
+    <t>32.900000000000006,</t>
+  </si>
+  <si>
     <t>biotin</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
+    <t>61.550000000000004,</t>
+  </si>
+  <si>
     <t>Pyc</t>
   </si>
   <si>
     <t>P2</t>
   </si>
   <si>
+    <t>50.400000000000006,</t>
+  </si>
+  <si>
     <t>Fdh</t>
   </si>
   <si>
     <t>P3</t>
   </si>
   <si>
+    <t>58.099999999999994,</t>
+  </si>
+  <si>
     <t>P70_GFP</t>
   </si>
   <si>
     <t>P4</t>
   </si>
   <si>
+    <t>35.15,</t>
+  </si>
+  <si>
     <t>Mdh</t>
   </si>
   <si>
     <t>P5</t>
+  </si>
+  <si>
+    <t>47.15,</t>
   </si>
 </sst>
 </file>
@@ -130,12 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,30 +482,36 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>55.2</v>
       </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -493,16 +519,19 @@
       <c r="E3">
         <v>64.400000000000006</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>44.1</v>
@@ -510,16 +539,19 @@
       <c r="E4">
         <v>54.2</v>
       </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -527,16 +559,19 @@
       <c r="E5">
         <v>63.8</v>
       </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>33</v>
@@ -544,22 +579,28 @@
       <c r="E6">
         <v>35.15</v>
       </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="D7">
         <v>47.08</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
